--- a/IT002-OOP/Điểm thực hành/it002m21mmcl/it002m21mmcl1.xlsx
+++ b/IT002-OOP/Điểm thực hành/it002m21mmcl/it002m21mmcl1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haime\OneDrive\Máy tính\Quan trọng\Giảng dạy\IT002-OOP\Điểm thực hành\it002m21mmcl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67066C57-0803-4948-8F9F-9DE31990ECD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C77055D8-47C7-4237-8345-53C7AB6C77CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -488,7 +488,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -539,7 +539,9 @@
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="3">
+        <v>750</v>
+      </c>
       <c r="D2" s="3">
         <v>600</v>
       </c>
@@ -557,7 +559,7 @@
       </c>
       <c r="I2" s="3">
         <f>C2/800+D2/800+E2/800+F2/800+G2/800+H2/2</f>
-        <v>6.875</v>
+        <v>7.8125</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -600,11 +602,15 @@
       <c r="C4" s="3">
         <v>800</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="3">
+        <v>533.33000000000004</v>
+      </c>
       <c r="E4" s="3">
         <v>800</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" s="3">
+        <v>300</v>
+      </c>
       <c r="G4" s="3">
         <v>800</v>
       </c>
@@ -613,7 +619,7 @@
       </c>
       <c r="I4" s="3">
         <f t="shared" si="0"/>
-        <v>6.5</v>
+        <v>7.5416625000000002</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -659,7 +665,9 @@
       <c r="D6" s="3">
         <v>600</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="3">
+        <v>400</v>
+      </c>
       <c r="F6" s="3">
         <v>800</v>
       </c>
@@ -671,7 +679,7 @@
       </c>
       <c r="I6" s="3">
         <f t="shared" si="0"/>
-        <v>7.25</v>
+        <v>7.75</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -691,13 +699,15 @@
       <c r="F7" s="3">
         <v>300</v>
       </c>
-      <c r="G7" s="3"/>
+      <c r="G7" s="3">
+        <v>400</v>
+      </c>
       <c r="H7" s="3">
         <v>8</v>
       </c>
       <c r="I7" s="3">
         <f t="shared" si="0"/>
-        <v>6.125</v>
+        <v>6.625</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -707,8 +717,12 @@
       <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="C8" s="3">
+        <v>725</v>
+      </c>
+      <c r="D8" s="3">
+        <v>525</v>
+      </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3">
         <v>300</v>
@@ -721,7 +735,7 @@
       </c>
       <c r="I8" s="3">
         <f t="shared" si="0"/>
-        <v>4.3125</v>
+        <v>5.875</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -791,7 +805,9 @@
       <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="3">
+        <v>750</v>
+      </c>
       <c r="D11" s="3">
         <v>600</v>
       </c>
@@ -809,7 +825,7 @@
       </c>
       <c r="I11" s="3">
         <f t="shared" si="0"/>
-        <v>7.25</v>
+        <v>8.1875</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -822,7 +838,9 @@
       <c r="C12" s="3">
         <v>800</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3">
+        <v>600</v>
+      </c>
       <c r="E12" s="3">
         <v>300</v>
       </c>
@@ -837,7 +855,7 @@
       </c>
       <c r="I12" s="3">
         <f t="shared" si="0"/>
-        <v>7.375</v>
+        <v>8.125</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -966,16 +984,22 @@
       <c r="C17" s="3">
         <v>800</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="D17" s="3">
+        <v>550</v>
+      </c>
+      <c r="E17" s="3">
+        <v>400</v>
+      </c>
+      <c r="F17" s="3">
+        <v>300</v>
+      </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3">
         <v>6</v>
       </c>
       <c r="I17" s="3">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5.5625</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1016,7 +1040,9 @@
         <v>19</v>
       </c>
       <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="D19" s="3">
+        <v>600</v>
+      </c>
       <c r="E19" s="3">
         <v>400</v>
       </c>
@@ -1025,11 +1051,11 @@
         <v>400</v>
       </c>
       <c r="H19" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I19" s="3">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1103,21 +1129,25 @@
       <c r="D22" s="3">
         <v>600</v>
       </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+      <c r="E22" s="3">
+        <v>600</v>
+      </c>
+      <c r="F22" s="3">
+        <v>200</v>
+      </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3">
         <v>7</v>
       </c>
       <c r="I22" s="3">
         <f t="shared" si="0"/>
-        <v>4.25</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H23">
         <f>AVERAGE(H2:H22)</f>
-        <v>7.1904761904761907</v>
+        <v>7.2857142857142856</v>
       </c>
     </row>
   </sheetData>
